--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357614.6594357117</v>
+        <v>431441.1605110332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11790039.00453981</v>
+        <v>11811132.38449664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12580513.79884685</v>
+        <v>12616125.87346817</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7144794.024323874</v>
+        <v>7130345.902793762</v>
       </c>
     </row>
     <row r="11">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="S8" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>32.73480275114746</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="F9" t="n">
-        <v>4.018462044011843</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>32.73480275114746</v>
       </c>
       <c r="H9" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.689216868589941</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.562286607642875</v>
+        <v>30.04558588255752</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.55518202532681</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U11" t="n">
-        <v>232.2791855053265</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>124.6447733318102</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
-        <v>202.3840495364244</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>215.8450691791935</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20.64107630343887</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>130.9356567043871</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G14" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="H14" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.2897156032232</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>19.9894699021032</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>28.70650558543734</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U15" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V15" t="n">
-        <v>221.6930907401023</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U16" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V16" t="n">
-        <v>201.7735229920443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>20.64107630343887</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>296.5549792672356</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>296.5549792672356</v>
+        <v>244.8448976285496</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7922105299372</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>49.41341520864371</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.5549792672356</v>
+        <v>263.7138800015059</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>155.9470613235785</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H18" t="n">
-        <v>98.89203934251188</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.37707135552876</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S18" t="n">
-        <v>146.0204464326186</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>63.12252204204736</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.996523513403</v>
+        <v>183.3251963852741</v>
       </c>
       <c r="U19" t="n">
-        <v>159.1493361499219</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D20" t="n">
-        <v>49.41341520864371</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E20" t="n">
-        <v>296.5549792672356</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G20" t="n">
-        <v>296.5549792672356</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7922105299372</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>296.5549792672356</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>23.18346962963416</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.37707135552876</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>100.3184291715242</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>68.73222446309889</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>54.1940662751721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2558497916201</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>26.4750368736993</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>163.1986060201081</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>103.3387326418233</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3387326418233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>71.51492391343572</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>154.9469960952861</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3343964518646</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>41.40707155284399</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>6.146182334060347</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -2772,16 +2772,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>318.2339086633598</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>81.21470415642989</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3006,19 +3006,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>79.86390050761101</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6538926514718</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>229.7828172134854</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>44.72258098469617</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
         <v>192.0665623188214</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>131.6945929587566</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>84.79527148983955</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>27.47862013186546</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705128</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>25.85602960338821</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>137.6824606572927</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>203.6555056541562</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>163.582095130154</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.128714607534039</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>146.9246168288995</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>277.6230370417285</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923704996</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>175.6443957837139</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>67.71328032341016</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.988488170808859</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>309.997532527135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.04795685916151</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>194.533597718633</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.581723550112187</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="C8" t="n">
-        <v>9.581723550112187</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="D8" t="n">
-        <v>9.581723550112187</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="E8" t="n">
-        <v>9.581723550112187</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="F8" t="n">
-        <v>4.973353239361809</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="G8" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="I8" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="K8" t="n">
-        <v>4.881646670177876</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="L8" t="n">
-        <v>9.398310411744323</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="M8" t="n">
-        <v>13.73248268900505</v>
+        <v>39.76639298788351</v>
       </c>
       <c r="N8" t="n">
-        <v>18.2491464305715</v>
+        <v>76.55959771499069</v>
       </c>
       <c r="O8" t="n">
-        <v>18.2491464305715</v>
+        <v>111.8662083117097</v>
       </c>
       <c r="P8" t="n">
-        <v>18.2491464305715</v>
+        <v>111.8662083117097</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.2491464305715</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="R8" t="n">
-        <v>18.2491464305715</v>
+        <v>111.1191572209338</v>
       </c>
       <c r="S8" t="n">
-        <v>14.19009386086257</v>
+        <v>111.1191572209338</v>
       </c>
       <c r="T8" t="n">
-        <v>14.19009386086257</v>
+        <v>111.1191572209338</v>
       </c>
       <c r="U8" t="n">
-        <v>14.19009386086257</v>
+        <v>73.57890140305076</v>
       </c>
       <c r="V8" t="n">
-        <v>14.19009386086257</v>
+        <v>36.03864558516771</v>
       </c>
       <c r="W8" t="n">
-        <v>14.19009386086257</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="X8" t="n">
-        <v>14.19009386086257</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.581723550112187</v>
+        <v>2.973188260776337</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="C9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="D9" t="n">
-        <v>9.032405809070742</v>
+        <v>111.1191572209338</v>
       </c>
       <c r="E9" t="n">
-        <v>9.032405809070742</v>
+        <v>73.57890140305076</v>
       </c>
       <c r="F9" t="n">
-        <v>4.973353239361809</v>
+        <v>36.03864558516771</v>
       </c>
       <c r="G9" t="n">
-        <v>4.973353239361809</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="H9" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="I9" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="J9" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="K9" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="L9" t="n">
-        <v>4.881646670177876</v>
+        <v>37.63146522625367</v>
       </c>
       <c r="M9" t="n">
-        <v>9.215818947438606</v>
+        <v>74.42466995336085</v>
       </c>
       <c r="N9" t="n">
-        <v>13.73248268900505</v>
+        <v>111.217874680468</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2491464305715</v>
+        <v>130.1778488563181</v>
       </c>
       <c r="P9" t="n">
-        <v>18.2491464305715</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.2491464305715</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="R9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="S9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="T9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="U9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="V9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="W9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="X9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.64077611982112</v>
+        <v>148.6594130388169</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.032405809070742</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="C10" t="n">
-        <v>9.032405809070742</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="D10" t="n">
-        <v>4.973353239361809</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36498292861143</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36498292861143</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36498292861143</v>
+        <v>5.689568936119713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="I10" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="J10" t="n">
-        <v>0.36498292861143</v>
+        <v>2.973188260776337</v>
       </c>
       <c r="K10" t="n">
-        <v>4.881646670177876</v>
+        <v>39.76639298788351</v>
       </c>
       <c r="L10" t="n">
-        <v>4.881646670177876</v>
+        <v>76.55959771499069</v>
       </c>
       <c r="M10" t="n">
-        <v>4.881646670177876</v>
+        <v>113.3528024420979</v>
       </c>
       <c r="N10" t="n">
-        <v>9.398310411744323</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="O10" t="n">
-        <v>13.73248268900505</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="P10" t="n">
-        <v>18.2491464305715</v>
+        <v>148.6594130388169</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.64077611982112</v>
+        <v>118.3103363897689</v>
       </c>
       <c r="R10" t="n">
-        <v>13.64077611982112</v>
+        <v>80.77008057188581</v>
       </c>
       <c r="S10" t="n">
-        <v>13.64077611982112</v>
+        <v>80.77008057188581</v>
       </c>
       <c r="T10" t="n">
-        <v>13.64077611982112</v>
+        <v>80.77008057188581</v>
       </c>
       <c r="U10" t="n">
-        <v>13.64077611982112</v>
+        <v>80.77008057188581</v>
       </c>
       <c r="V10" t="n">
-        <v>13.64077611982112</v>
+        <v>43.22982475400276</v>
       </c>
       <c r="W10" t="n">
-        <v>13.64077611982112</v>
+        <v>43.22982475400276</v>
       </c>
       <c r="X10" t="n">
-        <v>13.64077611982112</v>
+        <v>43.22982475400276</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.64077611982112</v>
+        <v>5.689568936119713</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C11" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D11" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E11" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F11" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G11" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H11" t="n">
         <v>21.09711040012049</v>
@@ -5041,22 +5041,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K11" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P11" t="n">
         <v>1011.026904601763</v>
@@ -5068,25 +5068,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>1054.855520006025</v>
+        <v>1021.97149775822</v>
       </c>
       <c r="T11" t="n">
-        <v>1054.855520006025</v>
+        <v>807.5374415933477</v>
       </c>
       <c r="U11" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="V11" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W11" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X11" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y11" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3310045827856</v>
+        <v>455.1727865131002</v>
       </c>
       <c r="C12" t="n">
-        <v>449.8779753016586</v>
+        <v>455.1727865131002</v>
       </c>
       <c r="D12" t="n">
-        <v>449.8779753016586</v>
+        <v>306.238376851849</v>
       </c>
       <c r="E12" t="n">
-        <v>449.8779753016586</v>
+        <v>147.0009218463935</v>
       </c>
       <c r="F12" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G12" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H12" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I12" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551328</v>
       </c>
       <c r="K12" t="n">
-        <v>192.1295835699343</v>
+        <v>121.6535314649674</v>
       </c>
       <c r="L12" t="n">
-        <v>338.874007230231</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N12" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O12" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P12" t="n">
         <v>1026.524810789493</v>
@@ -5144,28 +5144,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S12" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T12" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U12" t="n">
-        <v>832.0913033477395</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V12" t="n">
-        <v>832.0913033477395</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="W12" t="n">
-        <v>832.0913033477395</v>
+        <v>455.1727865131002</v>
       </c>
       <c r="X12" t="n">
-        <v>832.0913033477395</v>
+        <v>455.1727865131002</v>
       </c>
       <c r="Y12" t="n">
-        <v>624.3310045827856</v>
+        <v>455.1727865131002</v>
       </c>
     </row>
     <row r="13">
@@ -5205,16 +5205,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M13" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P13" t="n">
         <v>1048.360858816803</v>
@@ -5223,25 +5223,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R13" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S13" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T13" t="n">
-        <v>493.8069210092332</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U13" t="n">
-        <v>493.8069210092332</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V13" t="n">
-        <v>239.1224328033463</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="W13" t="n">
-        <v>21.09711040012049</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="X13" t="n">
-        <v>21.09711040012049</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="Y13" t="n">
         <v>21.09711040012049</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D14" t="n">
-        <v>686.1106626298169</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E14" t="n">
-        <v>686.1106626298169</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F14" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G14" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H14" t="n">
         <v>21.09711040012049</v>
@@ -5278,22 +5278,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K14" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M14" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P14" t="n">
         <v>1011.026904601763</v>
@@ -5305,25 +5305,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S14" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T14" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U14" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="W14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y14" t="n">
-        <v>686.1106626298169</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180.334565405576</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="C15" t="n">
-        <v>180.334565405576</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="D15" t="n">
-        <v>180.334565405576</v>
+        <v>332.3398876168641</v>
       </c>
       <c r="E15" t="n">
-        <v>21.09711040012049</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F15" t="n">
-        <v>21.09711040012049</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G15" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H15" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I15" t="n">
         <v>21.09711040012049</v>
@@ -5384,25 +5384,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S15" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T15" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U15" t="n">
-        <v>826.7196740428381</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V15" t="n">
-        <v>602.7872591538458</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W15" t="n">
-        <v>348.5499024256441</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X15" t="n">
-        <v>348.5499024256441</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="Y15" t="n">
-        <v>348.5499024256441</v>
+        <v>481.2742972781153</v>
       </c>
     </row>
     <row r="16">
@@ -5439,13 +5439,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L16" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M16" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N16" t="n">
         <v>739.1822330227046</v>
@@ -5460,22 +5460,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R16" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S16" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T16" t="n">
-        <v>719.2759572512191</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U16" t="n">
-        <v>452.8983006840411</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V16" t="n">
-        <v>249.0866612981378</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="W16" t="n">
-        <v>249.0866612981378</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="X16" t="n">
         <v>21.09711040012049</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>622.8253665580166</v>
+        <v>534.7928453799746</v>
       </c>
       <c r="C17" t="n">
-        <v>323.2748824496977</v>
+        <v>534.7928453799746</v>
       </c>
       <c r="D17" t="n">
-        <v>323.2748824496977</v>
+        <v>534.7928453799746</v>
       </c>
       <c r="E17" t="n">
-        <v>323.2748824496977</v>
+        <v>534.7928453799746</v>
       </c>
       <c r="F17" t="n">
-        <v>323.2748824496977</v>
+        <v>534.7928453799746</v>
       </c>
       <c r="G17" t="n">
-        <v>23.72439834137885</v>
+        <v>287.4747669672981</v>
       </c>
       <c r="H17" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I17" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J17" t="n">
-        <v>61.45946368660725</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K17" t="n">
-        <v>168.7530630784991</v>
+        <v>142.2640879052539</v>
       </c>
       <c r="L17" t="n">
-        <v>338.7620225311315</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M17" t="n">
-        <v>559.5991845858317</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N17" t="n">
-        <v>788.6235311795549</v>
+        <v>704.5463761991308</v>
       </c>
       <c r="O17" t="n">
-        <v>991.5494660546897</v>
+        <v>888.5149683358404</v>
       </c>
       <c r="P17" t="n">
-        <v>1130.241055754232</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q17" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R17" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S17" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T17" t="n">
-        <v>972.2883912811271</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U17" t="n">
-        <v>972.2883912811271</v>
+        <v>801.1705019471522</v>
       </c>
       <c r="V17" t="n">
-        <v>972.2883912811271</v>
+        <v>801.1705019471522</v>
       </c>
       <c r="W17" t="n">
-        <v>972.2883912811271</v>
+        <v>801.1705019471522</v>
       </c>
       <c r="X17" t="n">
-        <v>922.3758506663355</v>
+        <v>801.1705019471522</v>
       </c>
       <c r="Y17" t="n">
-        <v>622.8253665580166</v>
+        <v>534.7928453799746</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>440.3750863428853</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C18" t="n">
-        <v>282.8528021776544</v>
+        <v>158.4937968510532</v>
       </c>
       <c r="D18" t="n">
-        <v>282.8528021776544</v>
+        <v>158.4937968510532</v>
       </c>
       <c r="E18" t="n">
-        <v>123.6153471721989</v>
+        <v>158.4937968510532</v>
       </c>
       <c r="F18" t="n">
-        <v>123.6153471721989</v>
+        <v>158.4937968510532</v>
       </c>
       <c r="G18" t="n">
-        <v>123.6153471721989</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H18" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I18" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J18" t="n">
-        <v>27.38129779292686</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K18" t="n">
-        <v>246.0090710294555</v>
+        <v>192.1295835699336</v>
       </c>
       <c r="L18" t="n">
-        <v>405.8246159211038</v>
+        <v>338.8740072302302</v>
       </c>
       <c r="M18" t="n">
-        <v>611.6786869696565</v>
+        <v>529.4746963267539</v>
       </c>
       <c r="N18" t="n">
-        <v>837.389747656706</v>
+        <v>739.5286634293589</v>
       </c>
       <c r="O18" t="n">
-        <v>1021.651476751684</v>
+        <v>909.4672107560885</v>
       </c>
       <c r="P18" t="n">
-        <v>1150.204692908118</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q18" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R18" t="n">
-        <v>1171.697622770429</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S18" t="n">
-        <v>1024.20222233344</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T18" t="n">
-        <v>1024.20222233344</v>
+        <v>839.7105578442512</v>
       </c>
       <c r="U18" t="n">
-        <v>1024.20222233344</v>
+        <v>775.9504345694559</v>
       </c>
       <c r="V18" t="n">
-        <v>1024.20222233344</v>
+        <v>540.7983263377131</v>
       </c>
       <c r="W18" t="n">
-        <v>1024.20222233344</v>
+        <v>540.7983263377131</v>
       </c>
       <c r="X18" t="n">
-        <v>816.3507221279071</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="Y18" t="n">
-        <v>608.5904233629533</v>
+        <v>332.9468261321803</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.8410377537146</v>
+        <v>336.9232408259377</v>
       </c>
       <c r="C19" t="n">
-        <v>173.8410377537146</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="D19" t="n">
-        <v>23.72439834137885</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="E19" t="n">
-        <v>23.72439834137885</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="F19" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G19" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H19" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I19" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J19" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K19" t="n">
-        <v>134.9043498767887</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L19" t="n">
-        <v>332.702844527489</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M19" t="n">
-        <v>551.6427468357701</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N19" t="n">
-        <v>770.8113640437566</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O19" t="n">
-        <v>957.2327599894769</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P19" t="n">
-        <v>1093.227787283484</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q19" t="n">
-        <v>1103.948614848405</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R19" t="n">
-        <v>1103.948614848405</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S19" t="n">
-        <v>1103.948614848405</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T19" t="n">
-        <v>878.6996011985034</v>
+        <v>869.6785539602931</v>
       </c>
       <c r="U19" t="n">
-        <v>717.9426959965621</v>
+        <v>603.3008973931154</v>
       </c>
       <c r="V19" t="n">
-        <v>463.2582077906752</v>
+        <v>603.3008973931154</v>
       </c>
       <c r="W19" t="n">
-        <v>173.8410377537146</v>
+        <v>336.9232408259377</v>
       </c>
       <c r="X19" t="n">
-        <v>173.8410377537146</v>
+        <v>336.9232408259377</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.8410377537146</v>
+        <v>336.9232408259377</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>672.7379071728083</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C20" t="n">
-        <v>672.7379071728083</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D20" t="n">
-        <v>622.8253665580166</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E20" t="n">
-        <v>323.2748824496977</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F20" t="n">
-        <v>323.2748824496977</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G20" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H20" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I20" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J20" t="n">
-        <v>61.45946368660731</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K20" t="n">
-        <v>168.7530630784991</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L20" t="n">
-        <v>338.7620225311318</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M20" t="n">
-        <v>559.5991845858318</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N20" t="n">
-        <v>788.6235311795549</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O20" t="n">
-        <v>991.5494660546899</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P20" t="n">
-        <v>1130.241055754232</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q20" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R20" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S20" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T20" t="n">
-        <v>972.2883912811271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U20" t="n">
-        <v>972.2883912811271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V20" t="n">
-        <v>972.2883912811271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W20" t="n">
-        <v>672.7379071728083</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X20" t="n">
-        <v>672.7379071728083</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y20" t="n">
-        <v>672.7379071728083</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>501.8484670717402</v>
+        <v>492.1842811376358</v>
       </c>
       <c r="C21" t="n">
-        <v>478.4308209812007</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="D21" t="n">
-        <v>329.4964113199494</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E21" t="n">
-        <v>170.2589563144939</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F21" t="n">
-        <v>23.72439834137885</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G21" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H21" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I21" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J21" t="n">
-        <v>152.2114227799316</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K21" t="n">
-        <v>236.6164711299267</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L21" t="n">
-        <v>396.432016021575</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M21" t="n">
-        <v>602.2860870701277</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N21" t="n">
-        <v>827.9971477571772</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O21" t="n">
-        <v>1012.258876852155</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P21" t="n">
-        <v>1140.812093008589</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q21" t="n">
-        <v>1186.219917068943</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R21" t="n">
-        <v>1171.697622770429</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S21" t="n">
-        <v>1171.697622770429</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T21" t="n">
-        <v>1171.697622770429</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U21" t="n">
-        <v>1171.697622770429</v>
+        <v>935.1878895749114</v>
       </c>
       <c r="V21" t="n">
-        <v>1171.697622770429</v>
+        <v>700.0357813431687</v>
       </c>
       <c r="W21" t="n">
-        <v>917.460266042227</v>
+        <v>700.0357813431687</v>
       </c>
       <c r="X21" t="n">
-        <v>709.6087658366941</v>
+        <v>492.1842811376358</v>
       </c>
       <c r="Y21" t="n">
-        <v>501.8484670717402</v>
+        <v>492.1842811376358</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.1168036206801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C22" t="n">
-        <v>391.1806206927732</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D22" t="n">
-        <v>241.0639812804375</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E22" t="n">
-        <v>93.15088769804439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F22" t="n">
-        <v>93.15088769804439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G22" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H22" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I22" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J22" t="n">
-        <v>23.72439834137885</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K22" t="n">
-        <v>134.9043498767887</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L22" t="n">
-        <v>332.702844527489</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M22" t="n">
-        <v>551.6427468357701</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N22" t="n">
-        <v>770.8113640437566</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O22" t="n">
-        <v>957.2327599894769</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P22" t="n">
-        <v>1093.227787283484</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q22" t="n">
-        <v>1103.948614848405</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R22" t="n">
-        <v>1103.948614848405</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S22" t="n">
-        <v>1103.948614848405</v>
+        <v>1000.114038919992</v>
       </c>
       <c r="T22" t="n">
-        <v>1103.948614848405</v>
+        <v>774.6450026780064</v>
       </c>
       <c r="U22" t="n">
-        <v>814.801291826567</v>
+        <v>508.2673461108286</v>
       </c>
       <c r="V22" t="n">
-        <v>560.1168036206801</v>
+        <v>508.2673461108286</v>
       </c>
       <c r="W22" t="n">
-        <v>560.1168036206801</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X22" t="n">
-        <v>560.1168036206801</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.1168036206801</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1395.483980665509</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C23" t="n">
-        <v>1026.521463725097</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="D23" t="n">
-        <v>668.255765118347</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E23" t="n">
-        <v>282.4675125201027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F23" t="n">
-        <v>117.6204357321147</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G23" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H23" t="n">
         <v>117.6204357321147</v>
@@ -5989,16 +5989,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V23" t="n">
-        <v>1768.949738926589</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W23" t="n">
-        <v>1768.949738926589</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X23" t="n">
-        <v>1395.483980665509</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y23" t="n">
-        <v>1395.483980665509</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
@@ -6071,25 +6071,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L24" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M24" t="n">
-        <v>956.2844025217532</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N24" t="n">
-        <v>1343.569531118698</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O24" t="n">
-        <v>1675.63996629486</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P24" t="n">
-        <v>2238.100841080695</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2561.393271046732</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6107,10 +6107,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6147,16 +6147,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6192,7 +6192,7 @@
         <v>155.629344792067</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.24678656800311</v>
+        <v>155.629344792067</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>462.2326913576107</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="C26" t="n">
-        <v>462.2326913576107</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D26" t="n">
-        <v>462.2326913576107</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2326913576107</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F26" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362817</v>
@@ -6232,46 +6232,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U26" t="n">
-        <v>2100.012626270161</v>
+        <v>2156.657182650192</v>
       </c>
       <c r="V26" t="n">
-        <v>1768.94973892659</v>
+        <v>1825.594295306621</v>
       </c>
       <c r="W26" t="n">
-        <v>1612.437621658624</v>
+        <v>1472.825640036507</v>
       </c>
       <c r="X26" t="n">
-        <v>1238.971863397544</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="Y26" t="n">
-        <v>848.8325314217325</v>
+        <v>1099.359881775428</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F27" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
-        <v>143.6627691908478</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>590.2049751143506</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L27" t="n">
-        <v>884.9085321458224</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.170551105042</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701988</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>352.2580926322059</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C28" t="n">
-        <v>352.2580926322059</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D28" t="n">
-        <v>352.2580926322059</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E28" t="n">
-        <v>204.3449990498128</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>57.45505155190247</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U28" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V28" t="n">
-        <v>869.6648135671838</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W28" t="n">
-        <v>580.2476435302233</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X28" t="n">
-        <v>352.2580926322059</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="Y28" t="n">
-        <v>352.2580926322059</v>
+        <v>706.9279747894017</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1330.099343395678</v>
+        <v>1585.174086820819</v>
       </c>
       <c r="C29" t="n">
-        <v>1330.099343395678</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D29" t="n">
-        <v>1330.099343395678</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E29" t="n">
-        <v>944.3110907974333</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F29" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
@@ -6466,19 +6466,19 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P29" t="n">
         <v>2360.886721764997</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V29" t="n">
-        <v>2480.304273696691</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W29" t="n">
-        <v>2480.304273696691</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X29" t="n">
-        <v>2106.838515435611</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1716.699183459799</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>168.00081891452</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380228</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694945</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1026499885492</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C31" t="n">
         <v>496.1664670606423</v>
@@ -6621,16 +6621,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
@@ -6654,19 +6654,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U31" t="n">
-        <v>1136.16828485575</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.16828485575</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W31" t="n">
-        <v>846.7511148187889</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X31" t="n">
-        <v>846.7511148187889</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7511148187889</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1206.286642562605</v>
+        <v>956.3723032820419</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.286642562605</v>
+        <v>587.4097863416303</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0209439558549</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2326913576107</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6715,37 +6715,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2517.16500417319</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U32" t="n">
-        <v>2263.58394343737</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V32" t="n">
-        <v>1932.521056093799</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W32" t="n">
-        <v>1579.752400823685</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X32" t="n">
-        <v>1206.286642562605</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y32" t="n">
-        <v>1206.286642562605</v>
+        <v>1342.972143346164</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>590.2049751143506</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L33" t="n">
-        <v>884.9085321458224</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.170551105042</v>
+        <v>970.4000522258383</v>
       </c>
       <c r="N33" t="n">
-        <v>1635.455679701988</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P33" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6818,7 +6818,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X33" t="n">
         <v>1307.279776881661</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.2580926322059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C34" t="n">
-        <v>352.2580926322059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D34" t="n">
-        <v>352.2580926322059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E34" t="n">
-        <v>352.2580926322059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K34" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V34" t="n">
-        <v>869.6648135671838</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W34" t="n">
-        <v>580.2476435302233</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X34" t="n">
-        <v>352.2580926322059</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y34" t="n">
-        <v>352.2580926322059</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1660.900948886693</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C35" t="n">
-        <v>1291.938431946282</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D35" t="n">
-        <v>933.6727333395313</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E35" t="n">
-        <v>547.884480741287</v>
+        <v>905.6936235847011</v>
       </c>
       <c r="F35" t="n">
-        <v>136.8985759516794</v>
+        <v>494.7077187950935</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800313</v>
+        <v>79.00296851938236</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800313</v>
+        <v>79.00296851938236</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2437.640120926627</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.640120926627</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.640120926627</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.640120926627</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y35" t="n">
-        <v>2047.500788950815</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182532</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>520.4109910936374</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L36" t="n">
-        <v>815.1145481251092</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M36" t="n">
-        <v>1178.376567084329</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N36" t="n">
-        <v>1565.661695681275</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O36" t="n">
-        <v>2199.840679460313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>664.1529317523638</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1529317523638</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="D37" t="n">
-        <v>514.036292340028</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="E37" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1497.372927491374</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1208.254589995211</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V37" t="n">
-        <v>953.5701017893243</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W37" t="n">
-        <v>664.1529317523638</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X37" t="n">
-        <v>664.1529317523638</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y37" t="n">
-        <v>664.1529317523638</v>
+        <v>224.2539356854975</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1246.899958573734</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C38" t="n">
-        <v>877.9374416333219</v>
+        <v>1305.072513749323</v>
       </c>
       <c r="D38" t="n">
-        <v>877.9374416333219</v>
+        <v>946.8068151425723</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9374416333219</v>
+        <v>561.018562544328</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G38" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816072</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P38" t="n">
         <v>2360.886721764997</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W38" t="n">
-        <v>2397.104888874747</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X38" t="n">
-        <v>2023.639130613667</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.499798637855</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908472</v>
       </c>
       <c r="K39" t="n">
-        <v>684.9695361605189</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L39" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M39" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N39" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O39" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7286,16 +7286,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>354.4439942939401</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C40" t="n">
-        <v>354.4439942939401</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D40" t="n">
-        <v>204.3273548816044</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E40" t="n">
-        <v>204.3273548816044</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F40" t="n">
-        <v>57.43740738369405</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
         <v>1123.088724245823</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.446120074497</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U40" t="n">
-        <v>1347.327782578335</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V40" t="n">
-        <v>1092.643294372448</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W40" t="n">
-        <v>803.2261243354876</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X40" t="n">
-        <v>575.2365734374703</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y40" t="n">
-        <v>354.4439942939401</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.725694231566</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
         <v>1656.671415230817</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U41" t="n">
-        <v>2413.93062453258</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V41" t="n">
-        <v>2413.93062453258</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W41" t="n">
-        <v>2413.93062453258</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.4648662715</v>
+        <v>1550.863094777531</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.325534295688</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L42" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M42" t="n">
-        <v>956.2844025217532</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N42" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O42" t="n">
-        <v>1860.224488783101</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P42" t="n">
         <v>2422.685363568936</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C43" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D43" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7596,25 +7596,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U43" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V43" t="n">
-        <v>1092.643294372448</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W43" t="n">
-        <v>803.2261243354876</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X43" t="n">
-        <v>734.8288714835581</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.036292340028</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C44" t="n">
         <v>1263.725694231566</v>
@@ -7648,19 +7648,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362809</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816073</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872907</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U44" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>2040.4648662715</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W44" t="n">
-        <v>2040.4648662715</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.4648662715</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>590.2049751143493</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L45" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.1694341876314</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C46" t="n">
-        <v>219.2332512597245</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D46" t="n">
-        <v>219.2332512597245</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E46" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F46" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
         <v>51.2467865680031</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W46" t="n">
-        <v>638.3033838959711</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X46" t="n">
-        <v>638.3033838959711</v>
+        <v>896.3597508750534</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.510804752441</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.75247211164648</v>
+        <v>54.24463530285105</v>
       </c>
       <c r="K8" t="n">
-        <v>57.8521323086317</v>
+        <v>30.04761831658774</v>
       </c>
       <c r="L8" t="n">
-        <v>33.39854548300258</v>
+        <v>0.002220586678163272</v>
       </c>
       <c r="M8" t="n">
-        <v>4.474515194684224</v>
+        <v>5.177993338627147</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.161922983629779</v>
+        <v>14.03948682102318</v>
       </c>
       <c r="P8" t="n">
-        <v>42.66898511507466</v>
+        <v>16.39412017861559</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.70197082457096</v>
+        <v>98.13549476059373</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>60.55202075660908</v>
+        <v>51.31565939260837</v>
       </c>
       <c r="K9" t="n">
-        <v>24.54878065809741</v>
+        <v>8.76236794102698</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.42343072191045</v>
+        <v>37.94420222101091</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>65.23786115827478</v>
+        <v>88.31812606735078</v>
       </c>
       <c r="L10" t="n">
-        <v>47.4359690887577</v>
+        <v>72.41555453118629</v>
       </c>
       <c r="M10" t="n">
-        <v>46.72338342663512</v>
+        <v>71.04058027364009</v>
       </c>
       <c r="N10" t="n">
-        <v>42.23779755379654</v>
+        <v>60.79658611401326</v>
       </c>
       <c r="O10" t="n">
-        <v>59.69565574609634</v>
+        <v>43.7329819242844</v>
       </c>
       <c r="P10" t="n">
-        <v>71.15065506373918</v>
+        <v>56.6756374397679</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153222</v>
       </c>
       <c r="K12" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775153</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.38057711014631</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5785099863976</v>
+        <v>97.3216690912717</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.38057711014631</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.487474645988499</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>199.751631150407</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.89339468985679</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>30.36925650589538</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R30" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780652</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.25823202432855</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>98.24448441976904</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>30.3692565058948</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>255.5240487471577</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O42" t="n">
-        <v>186.4490126143847</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>168.7434581780638</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>402.3137591340686</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>409.4291687688446</v>
+        <v>413.8087388497781</v>
       </c>
       <c r="H8" t="n">
-        <v>326.0456339133427</v>
+        <v>324.1743882841808</v>
       </c>
       <c r="I8" t="n">
-        <v>159.9226849201952</v>
+        <v>152.878506024234</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.4992912993288</v>
+        <v>18.85687101872007</v>
       </c>
       <c r="S8" t="n">
-        <v>175.1207658078018</v>
+        <v>174.975574999425</v>
       </c>
       <c r="T8" t="n">
-        <v>217.3557120022016</v>
+        <v>216.5558704065315</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2407503367447</v>
+        <v>214.0612797549037</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>290.5874052104307</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>316.5061659662655</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>142.8827789569959</v>
+        <v>110.2802123049345</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4802271956967</v>
       </c>
       <c r="F9" t="n">
-        <v>141.050750349372</v>
+        <v>107.9043591336797</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6419193661031</v>
+        <v>103.8093546544621</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8971999567888</v>
+        <v>104.5153118407174</v>
       </c>
       <c r="I9" t="n">
-        <v>65.24074378433592</v>
+        <v>61.87481663576317</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>52.03494045792093</v>
+        <v>50.52740990439236</v>
       </c>
       <c r="S9" t="n">
-        <v>158.6512997408977</v>
+        <v>156.8354142027823</v>
       </c>
       <c r="T9" t="n">
-        <v>197.336797223147</v>
+        <v>196.9427479174733</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8887926232379</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.2696935742944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>144.5970109742005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>141.8716760389263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4027833335613</v>
+        <v>167.3208229899206</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9975751224423</v>
+        <v>153.579656289483</v>
       </c>
       <c r="I10" t="n">
-        <v>137.761816287615</v>
+        <v>135.2970452261287</v>
       </c>
       <c r="J10" t="n">
-        <v>51.77372115642321</v>
+        <v>45.97912486102438</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.34636041377521</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>150.8459592031442</v>
+        <v>109.9958708557401</v>
       </c>
       <c r="S10" t="n">
-        <v>213.7659454939867</v>
+        <v>212.3376002325389</v>
       </c>
       <c r="T10" t="n">
-        <v>225.4323882309924</v>
+        <v>225.0821940354366</v>
       </c>
       <c r="U10" t="n">
-        <v>286.286945936951</v>
+        <v>286.2824753727525</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>214.9727900641238</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>181.4198000923906</v>
       </c>
     </row>
     <row r="11">
@@ -23275,7 +23275,7 @@
         <v>412.83417464571</v>
       </c>
       <c r="H11" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I11" t="n">
         <v>115.3066195468971</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7676931992223</v>
+        <v>120.2125111738955</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>18.86898237295603</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>20.42443906157366</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>23.47043796713024</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>70.67792915739747</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>197.9435770486559</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>275.9403890373243</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G14" t="n">
         <v>149.1202946442039</v>
       </c>
       <c r="H14" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I14" t="n">
         <v>115.3066195468971</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>307.7627885680317</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>128.9385748699636</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S15" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>11.10749640932292</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>22.54475050117134</v>
       </c>
       <c r="V16" t="n">
-        <v>50.36412033178374</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.0685790855983</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>68.71791250377191</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>116.1655448762959</v>
+        <v>167.9892770171604</v>
       </c>
       <c r="H17" t="n">
-        <v>313.0297094238333</v>
+        <v>50.47975262776214</v>
       </c>
       <c r="I17" t="n">
-        <v>110.9251085616635</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.1778823808315</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1390758381082</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>320.3176854698253</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.68295938881795</v>
+        <v>122.5240586545477</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>16.76143766473723</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9619112068852</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I18" t="n">
-        <v>41.82818216214214</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T18" t="n">
-        <v>194.5958871427908</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8504869522692</v>
+        <v>162.7319654615073</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8326873358276</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H19" t="n">
-        <v>151.9289034335009</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I19" t="n">
-        <v>120.6174748284963</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J19" t="n">
-        <v>11.46793411665105</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>125.212370068682</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S19" t="n">
-        <v>203.830727060755</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.88914949429176</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1065136416982</v>
+        <v>22.54475050117162</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>22.80911833508515</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D20" t="n">
-        <v>305.2696264120393</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E20" t="n">
-        <v>85.37539080502614</v>
+        <v>149.6511845669353</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G20" t="n">
-        <v>116.1655448762959</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H20" t="n">
-        <v>313.0297094238333</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I20" t="n">
-        <v>110.9251085616635</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.1778823808315</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1390758381082</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>52.68598945017737</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>149.5250293586816</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9619112068852</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.89203934251188</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I21" t="n">
-        <v>41.82818216214214</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>146.0204464326186</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T21" t="n">
-        <v>194.5958871427908</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8504869522692</v>
+        <v>125.5360583320304</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>98.10046287272873</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H22" t="n">
-        <v>151.9289034335009</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I22" t="n">
-        <v>120.6174748284963</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J22" t="n">
-        <v>11.46793411665105</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>125.212370068682</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S22" t="n">
-        <v>203.830727060755</v>
+        <v>150.5250979684216</v>
       </c>
       <c r="T22" t="n">
-        <v>222.996523513403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>328.2080047469836</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>243.6774397216033</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>76.49324754011404</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.2459207102715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>179.5303262150263</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>194.2939726221269</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4249086290933</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.1604177107438</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24651,7 +24651,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>47.03898310764777</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24700,7 +24700,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>246.537554313705</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>206.3632536135896</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>17.05576273756537</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>124.9002244071976</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>161.9356039955376</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>13.72645506417467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25125,7 +25125,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>326.7524312831144</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>38.23129254060504</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>120.577933043181</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25362,10 +25362,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>83.06623533991925</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>203.2205400875552</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>185.658873587259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>160.1778854372701</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25599,10 +25599,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>104.1206332995625</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>92.1080636367405</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25836,25 +25836,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>76.49324754011408</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.996375065627</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>358.2844036001987</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>17.75472594299987</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.7840233227758</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551288</v>
@@ -26073,7 +26073,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.05105563346183</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>332541.4982046012</v>
+        <v>358128.6155435205</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>543733.6057748577</v>
+        <v>543733.6057748576</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>543733.6057748577</v>
+        <v>543733.6057748576</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>567368.3073426278</v>
+        <v>543733.6057748575</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567368.307342628</v>
+        <v>543733.6057748577</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813588.2900119936</v>
+        <v>813588.2900119937</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813588.2900119936</v>
+        <v>813588.2900119937</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813588.2900119935</v>
+        <v>813588.2900119936</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813588.2900119935</v>
+        <v>813588.2900119936</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         <v>107598.3291737243</v>
       </c>
       <c r="D2" t="n">
-        <v>108955.8949901827</v>
+        <v>118657.1991435647</v>
       </c>
       <c r="E2" t="n">
         <v>183569.9230774011</v>
       </c>
       <c r="F2" t="n">
-        <v>183569.9230774012</v>
+        <v>183569.9230774011</v>
       </c>
       <c r="G2" t="n">
-        <v>191625.6618700128</v>
+        <v>183569.923077401</v>
       </c>
       <c r="H2" t="n">
-        <v>191625.6618700128</v>
+        <v>183569.9230774011</v>
       </c>
       <c r="I2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="J2" t="n">
         <v>275374.4674448774</v>
-      </c>
-      <c r="J2" t="n">
-        <v>275374.4674448775</v>
       </c>
       <c r="K2" t="n">
         <v>275374.4674448774</v>
       </c>
       <c r="L2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="M2" t="n">
-        <v>275374.4674448776</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="N2" t="n">
         <v>275374.4674448775</v>
@@ -26355,7 +26355,7 @@
         <v>275374.4674448775</v>
       </c>
       <c r="P2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448773</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6864.158965221272</v>
+        <v>55916.14088127913</v>
       </c>
       <c r="E3" t="n">
-        <v>308655.4636758681</v>
+        <v>262405.796860201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30981.24745406203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>311091.2408230308</v>
+        <v>341105.0163696185</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1154.673679815015</v>
+        <v>9406.089876351802</v>
       </c>
       <c r="M3" t="n">
-        <v>64581.6136801243</v>
+        <v>56456.92366016401</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7903.243379397126</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>18162.84752353982</v>
       </c>
       <c r="D4" t="n">
-        <v>17783.9799822616</v>
+        <v>15373.37890981445</v>
       </c>
       <c r="E4" t="n">
-        <v>13649.17455297509</v>
+        <v>13649.1745529751</v>
       </c>
       <c r="F4" t="n">
         <v>13649.1745529751</v>
       </c>
       <c r="G4" t="n">
-        <v>14037.2283562489</v>
+        <v>13649.17455297508</v>
       </c>
       <c r="H4" t="n">
-        <v>14037.2283562489</v>
+        <v>13649.1745529751</v>
       </c>
       <c r="I4" t="n">
         <v>18583.86599059036</v>
       </c>
       <c r="J4" t="n">
-        <v>18583.86599059037</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="K4" t="n">
         <v>18583.86599059035</v>
       </c>
       <c r="L4" t="n">
-        <v>18583.86599059037</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="M4" t="n">
         <v>18583.86599059036</v>
       </c>
       <c r="N4" t="n">
-        <v>18583.86599059034</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="O4" t="n">
-        <v>18583.86599059035</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="P4" t="n">
         <v>18583.86599059034</v>
@@ -26475,7 +26475,7 @@
         <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
-        <v>41015.74224309583</v>
+        <v>43988.80434075415</v>
       </c>
       <c r="E5" t="n">
         <v>29420.2032042662</v>
@@ -26484,25 +26484,25 @@
         <v>29420.2032042662</v>
       </c>
       <c r="G5" t="n">
-        <v>32033.24030031059</v>
+        <v>29420.20320426618</v>
       </c>
       <c r="H5" t="n">
-        <v>32033.24030031059</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273896.4640261384</v>
+        <v>-260802.9406628783</v>
       </c>
       <c r="C6" t="n">
-        <v>34287.41979441587</v>
+        <v>47380.94315767603</v>
       </c>
       <c r="D6" t="n">
-        <v>28819.07483022928</v>
+        <v>1985.477248964983</v>
       </c>
       <c r="E6" t="n">
-        <v>-178482.6335424598</v>
+        <v>-122938.0230587163</v>
       </c>
       <c r="F6" t="n">
-        <v>130172.8301334084</v>
+        <v>139467.7738014847</v>
       </c>
       <c r="G6" t="n">
-        <v>104693.7716166738</v>
+        <v>139467.7738014847</v>
       </c>
       <c r="H6" t="n">
-        <v>135675.0190707358</v>
+        <v>139467.7738014846</v>
       </c>
       <c r="I6" t="n">
-        <v>-118838.2745304801</v>
+        <v>-144147.3336273653</v>
       </c>
       <c r="J6" t="n">
-        <v>192252.9662925508</v>
+        <v>196957.6827422531</v>
       </c>
       <c r="K6" t="n">
-        <v>192252.9662925507</v>
+        <v>196957.6827422531</v>
       </c>
       <c r="L6" t="n">
-        <v>191098.2926127357</v>
+        <v>187551.5928659014</v>
       </c>
       <c r="M6" t="n">
-        <v>127671.3526124265</v>
+        <v>140500.7590820892</v>
       </c>
       <c r="N6" t="n">
-        <v>192252.9662925508</v>
+        <v>196957.6827422533</v>
       </c>
       <c r="O6" t="n">
-        <v>184349.7229131536</v>
+        <v>196957.6827422533</v>
       </c>
       <c r="P6" t="n">
-        <v>192252.9662925507</v>
+        <v>196957.682742253</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
-        <v>326.1814319885848</v>
+        <v>371.6321680075289</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="F3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="G3" t="n">
-        <v>642.3255761863605</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="H3" t="n">
-        <v>642.3255761863605</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="K3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="L3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="M3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="N3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="P3" t="n">
         <v>934.0648921175393</v>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="E4" t="n">
         <v>263.7138800015061</v>
@@ -26804,31 +26804,31 @@
         <v>263.7138800015061</v>
       </c>
       <c r="G4" t="n">
-        <v>296.5549792672356</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="H4" t="n">
-        <v>296.5549792672356</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.360213490542151</v>
+        <v>51.81094950948631</v>
       </c>
       <c r="E3" t="n">
-        <v>287.8735817808935</v>
+        <v>242.4228457619492</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.27056241688229</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>291.7393159311788</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,22 +27017,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="E4" t="n">
-        <v>259.1515933938633</v>
+        <v>226.5490267418019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>32.8410992657295</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>344.0298528328032</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.562286607643159</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1515933938633</v>
+        <v>226.5490267418019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.84109926572973</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1515933938633</v>
+        <v>226.5490267418019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.8410992657295</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.311282138647576</v>
+        <v>1.493998665356899</v>
       </c>
       <c r="H8" t="n">
-        <v>13.42916820242449</v>
+        <v>15.30041383158635</v>
       </c>
       <c r="I8" t="n">
-        <v>50.55320465021072</v>
+        <v>57.59738354617191</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2934324150398</v>
+        <v>126.8012692238352</v>
       </c>
       <c r="K8" t="n">
-        <v>166.8000053439917</v>
+        <v>190.0422327283928</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9301560946275</v>
+        <v>235.7641943833091</v>
       </c>
       <c r="M8" t="n">
-        <v>230.2496698278014</v>
+        <v>262.3330931483498</v>
       </c>
       <c r="N8" t="n">
-        <v>233.9753502042338</v>
+        <v>266.5779168562951</v>
       </c>
       <c r="O8" t="n">
-        <v>220.9362884380569</v>
+        <v>251.7219676276524</v>
       </c>
       <c r="P8" t="n">
-        <v>188.5640106401949</v>
+        <v>214.8388755766539</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.6037190498785</v>
+        <v>161.3350483735599</v>
       </c>
       <c r="R8" t="n">
-        <v>82.36982664182088</v>
+        <v>93.84739366272539</v>
       </c>
       <c r="S8" t="n">
-        <v>29.88084173443167</v>
+        <v>34.04449458682037</v>
       </c>
       <c r="T8" t="n">
-        <v>5.740137561929767</v>
+        <v>6.539979157599829</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1195198932285519</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7993597576011</v>
       </c>
       <c r="H9" t="n">
-        <v>6.775957672064753</v>
+        <v>7.720132395779046</v>
       </c>
       <c r="I9" t="n">
-        <v>24.15588906707916</v>
+        <v>27.52181621565191</v>
       </c>
       <c r="J9" t="n">
-        <v>66.28560591005761</v>
+        <v>75.52196727405833</v>
       </c>
       <c r="K9" t="n">
-        <v>113.2926583162616</v>
+        <v>129.079071033332</v>
       </c>
       <c r="L9" t="n">
-        <v>143.1166663875171</v>
+        <v>173.5627403510634</v>
       </c>
       <c r="M9" t="n">
-        <v>146.5119857172312</v>
+        <v>179.2988871817225</v>
       </c>
       <c r="N9" t="n">
-        <v>135.9039986909762</v>
+        <v>168.5065653430375</v>
       </c>
       <c r="O9" t="n">
-        <v>147.1585310520873</v>
+        <v>161.7477335109597</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>152.6426540633188</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.55834336411107</v>
+        <v>102.0375718650106</v>
       </c>
       <c r="R9" t="n">
-        <v>43.56060708707933</v>
+        <v>49.63042424825078</v>
       </c>
       <c r="S9" t="n">
-        <v>13.03187136294015</v>
+        <v>14.84775690105551</v>
       </c>
       <c r="T9" t="n">
-        <v>2.827931471674616</v>
+        <v>3.221980777348292</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.05258945773691449</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.6701563685381668</v>
       </c>
       <c r="H10" t="n">
-        <v>5.229597384997313</v>
+        <v>5.958299349366615</v>
       </c>
       <c r="I10" t="n">
-        <v>17.68865863964326</v>
+        <v>20.15342970112961</v>
       </c>
       <c r="J10" t="n">
-        <v>41.58545896024957</v>
+        <v>47.38005525564839</v>
       </c>
       <c r="K10" t="n">
-        <v>68.33768361990347</v>
+        <v>77.85998536288882</v>
       </c>
       <c r="L10" t="n">
-        <v>87.44870719248058</v>
+        <v>99.63397500975621</v>
       </c>
       <c r="M10" t="n">
-        <v>92.20240052096993</v>
+        <v>105.0500569336692</v>
       </c>
       <c r="N10" t="n">
-        <v>90.01003351907953</v>
+        <v>102.5522013782088</v>
       </c>
       <c r="O10" t="n">
-        <v>83.13883450095931</v>
+        <v>94.72355652755839</v>
       </c>
       <c r="P10" t="n">
-        <v>71.13963559305131</v>
+        <v>81.05236660937972</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.2533962302763</v>
+        <v>56.11645736913687</v>
       </c>
       <c r="R10" t="n">
-        <v>26.44743217402524</v>
+        <v>30.13266726172521</v>
       </c>
       <c r="S10" t="n">
-        <v>10.25065254298552</v>
+        <v>11.67899780443332</v>
       </c>
       <c r="T10" t="n">
-        <v>2.513201197289095</v>
+        <v>2.863395392844894</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03655398373844551</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,16 +31758,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K11" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M11" t="n">
         <v>433.4580399459292</v>
@@ -31776,25 +31776,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O11" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R11" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T11" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H12" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J12" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L12" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O12" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q12" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H13" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K13" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M13" t="n">
         <v>173.576239384051</v>
@@ -31937,19 +31937,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S13" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U13" t="n">
         <v>0.06039885381339136</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.582213371603458</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H17" t="n">
-        <v>26.44509269193392</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I17" t="n">
-        <v>99.55078100874239</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J17" t="n">
-        <v>219.1621321481292</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K17" t="n">
-        <v>328.4672241681035</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L17" t="n">
-        <v>407.492636639313</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M17" t="n">
-        <v>453.4140736865659</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N17" t="n">
-        <v>460.7507874286343</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O17" t="n">
-        <v>435.0739032147524</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P17" t="n">
-        <v>371.3255106032919</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8499942327431</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R17" t="n">
-        <v>162.2049607039858</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S17" t="n">
-        <v>58.84218720541384</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T17" t="n">
-        <v>11.30363903419414</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2065770697282766</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.381605956325379</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H18" t="n">
-        <v>13.34340489398459</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I18" t="n">
-        <v>47.56845068927294</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J18" t="n">
-        <v>130.5314644965132</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0990635703136</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L18" t="n">
-        <v>299.9842231047715</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M18" t="n">
-        <v>350.0674390215664</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N18" t="n">
-        <v>359.3326824742924</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O18" t="n">
-        <v>328.7192031262406</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P18" t="n">
-        <v>263.8261409056771</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.3607883898853</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R18" t="n">
-        <v>85.78076279711438</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S18" t="n">
-        <v>25.6627246712192</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T18" t="n">
-        <v>5.568841552030803</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0908951287056171</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.158292022631142</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H19" t="n">
-        <v>10.29826907393871</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I19" t="n">
-        <v>34.83300009876199</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J19" t="n">
-        <v>81.89124600002172</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K19" t="n">
-        <v>134.5724731747817</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L19" t="n">
-        <v>172.2064339828154</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M19" t="n">
-        <v>181.5675395111707</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N19" t="n">
-        <v>177.2502692450002</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O19" t="n">
-        <v>163.7193124351727</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P19" t="n">
-        <v>140.0901551734973</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.99116200414043</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R19" t="n">
-        <v>52.08102130848751</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S19" t="n">
-        <v>20.18587097621726</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T19" t="n">
-        <v>4.949065914878513</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06317956487078963</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.582213371603458</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H20" t="n">
-        <v>26.44509269193392</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I20" t="n">
-        <v>99.55078100874239</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J20" t="n">
-        <v>219.1621321481292</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K20" t="n">
-        <v>328.4672241681035</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L20" t="n">
-        <v>407.492636639313</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M20" t="n">
-        <v>453.4140736865659</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7507874286343</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O20" t="n">
-        <v>435.0739032147524</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P20" t="n">
-        <v>371.3255106032919</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.8499942327431</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R20" t="n">
-        <v>162.2049607039858</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S20" t="n">
-        <v>58.84218720541384</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T20" t="n">
-        <v>11.30363903419414</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2065770697282766</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.381605956325379</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H21" t="n">
-        <v>13.34340489398459</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I21" t="n">
-        <v>47.56845068927294</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J21" t="n">
-        <v>130.5314644965132</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0990635703136</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L21" t="n">
-        <v>299.9842231047715</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M21" t="n">
-        <v>350.0674390215664</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N21" t="n">
-        <v>359.3326824742924</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O21" t="n">
-        <v>328.7192031262406</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P21" t="n">
-        <v>263.8261409056771</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.3607883898853</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R21" t="n">
-        <v>85.78076279711438</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S21" t="n">
-        <v>25.6627246712192</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T21" t="n">
-        <v>5.568841552030803</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0908951287056171</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.158292022631142</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H22" t="n">
-        <v>10.29826907393871</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I22" t="n">
-        <v>34.83300009876199</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J22" t="n">
-        <v>81.89124600002172</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K22" t="n">
-        <v>134.5724731747817</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L22" t="n">
-        <v>172.2064339828154</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M22" t="n">
-        <v>181.5675395111707</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N22" t="n">
-        <v>177.2502692450002</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O22" t="n">
-        <v>163.7193124351727</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P22" t="n">
-        <v>140.0901551734973</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.99116200414043</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R22" t="n">
-        <v>52.08102130848751</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S22" t="n">
-        <v>20.18587097621726</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T22" t="n">
-        <v>4.949065914878513</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06317956487078963</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H23" t="n">
         <v>38.45624955336179</v>
@@ -32715,16 +32715,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N23" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P23" t="n">
         <v>539.9786897190645</v>
@@ -32736,7 +32736,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T23" t="n">
         <v>16.4376645838976</v>
@@ -32785,7 +32785,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32797,16 +32797,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O24" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q24" t="n">
         <v>256.4624964168761</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32891,7 +32891,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
@@ -32900,7 +32900,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H26" t="n">
         <v>38.45624955336179</v>
@@ -32952,16 +32952,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L26" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N26" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P26" t="n">
         <v>539.9786897190645</v>
@@ -32973,7 +32973,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T26" t="n">
         <v>16.4376645838976</v>
@@ -33022,7 +33022,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
@@ -33034,16 +33034,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M27" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N27" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O27" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P27" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q27" t="n">
         <v>256.4624964168761</v>
@@ -33101,7 +33101,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
@@ -33128,7 +33128,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
@@ -33137,7 +33137,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H29" t="n">
         <v>38.45624955336179</v>
@@ -33189,16 +33189,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L29" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M29" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N29" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O29" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P29" t="n">
         <v>539.9786897190645</v>
@@ -33210,7 +33210,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S29" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T29" t="n">
         <v>16.4376645838976</v>
@@ -33259,7 +33259,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I30" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J30" t="n">
         <v>189.8178475575841</v>
@@ -33271,16 +33271,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M30" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N30" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O30" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P30" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q30" t="n">
         <v>256.4624964168761</v>
@@ -33338,7 +33338,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I31" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J31" t="n">
         <v>119.0856174753787</v>
@@ -33365,7 +33365,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R31" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S31" t="n">
         <v>29.35413767523479</v>
@@ -33374,7 +33374,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H32" t="n">
         <v>38.45624955336179</v>
@@ -33426,16 +33426,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L32" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M32" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N32" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O32" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P32" t="n">
         <v>539.9786897190645</v>
@@ -33447,7 +33447,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S32" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T32" t="n">
         <v>16.4376645838976</v>
@@ -33496,7 +33496,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I33" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J33" t="n">
         <v>189.8178475575841</v>
@@ -33508,16 +33508,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M33" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N33" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O33" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P33" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q33" t="n">
         <v>256.4624964168761</v>
@@ -33575,7 +33575,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I34" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J34" t="n">
         <v>119.0856174753787</v>
@@ -33602,7 +33602,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R34" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S34" t="n">
         <v>29.35413767523479</v>
@@ -33611,7 +33611,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H35" t="n">
         <v>38.45624955336179</v>
@@ -33663,16 +33663,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L35" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M35" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N35" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O35" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P35" t="n">
         <v>539.9786897190645</v>
@@ -33684,7 +33684,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S35" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T35" t="n">
         <v>16.4376645838976</v>
@@ -33733,7 +33733,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I36" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J36" t="n">
         <v>189.8178475575841</v>
@@ -33745,16 +33745,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M36" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N36" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O36" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P36" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q36" t="n">
         <v>256.4624964168761</v>
@@ -33812,7 +33812,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I37" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J37" t="n">
         <v>119.0856174753787</v>
@@ -33839,7 +33839,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R37" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S37" t="n">
         <v>29.35413767523479</v>
@@ -33848,7 +33848,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H38" t="n">
         <v>38.45624955336179</v>
@@ -33900,16 +33900,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L38" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M38" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N38" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O38" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P38" t="n">
         <v>539.9786897190645</v>
@@ -33921,7 +33921,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S38" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T38" t="n">
         <v>16.4376645838976</v>
@@ -33970,7 +33970,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I39" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J39" t="n">
         <v>189.8178475575841</v>
@@ -33982,16 +33982,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M39" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N39" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O39" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P39" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q39" t="n">
         <v>256.4624964168761</v>
@@ -34049,7 +34049,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I40" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J40" t="n">
         <v>119.0856174753787</v>
@@ -34076,7 +34076,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R40" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S40" t="n">
         <v>29.35413767523479</v>
@@ -34085,7 +34085,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H41" t="n">
         <v>38.45624955336179</v>
@@ -34137,16 +34137,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N41" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34158,7 +34158,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
@@ -34207,7 +34207,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34219,16 +34219,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O42" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q42" t="n">
         <v>256.4624964168761</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34313,7 +34313,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S43" t="n">
         <v>29.35413767523479</v>
@@ -34322,7 +34322,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491891</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
         <v>477.6545005857143</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4.377951795212859</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="N8" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>35.6632430269889</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.562286607642875</v>
+        <v>35.00836057118923</v>
       </c>
       <c r="M9" t="n">
-        <v>4.377951795212859</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="N9" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="O9" t="n">
-        <v>4.562286607642875</v>
+        <v>19.15148906651529</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>18.6682466489886</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.562286607642875</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>37.16485325970422</v>
       </c>
       <c r="N10" t="n">
-        <v>4.562286607642875</v>
+        <v>35.66324302698889</v>
       </c>
       <c r="O10" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L11" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N11" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P11" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>26.13373767211393</v>
       </c>
       <c r="K12" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L12" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,10 +35585,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.11622762144287</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K17" t="n">
-        <v>108.377373123123</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L17" t="n">
-        <v>171.7262216693258</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M17" t="n">
-        <v>223.0678404592932</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N17" t="n">
-        <v>231.3377238320434</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O17" t="n">
-        <v>204.9756917930656</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P17" t="n">
-        <v>140.0925148480224</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.5443043582936</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.693837829846473</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>220.8361345823521</v>
+        <v>172.7600739089021</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4298433248973</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M18" t="n">
-        <v>207.9334050995481</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N18" t="n">
-        <v>227.9909703909591</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O18" t="n">
-        <v>186.1229586817961</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8517334913468</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.37901430386376</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.3029813488989</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L19" t="n">
-        <v>199.7964592431316</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M19" t="n">
-        <v>221.1514164730113</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N19" t="n">
-        <v>221.3824416242288</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O19" t="n">
-        <v>188.3044403492124</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P19" t="n">
-        <v>137.3687144383908</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.82911875244605</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.11622762144287</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K20" t="n">
-        <v>108.377373123123</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L20" t="n">
-        <v>171.7262216693258</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M20" t="n">
-        <v>223.0678404592932</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N20" t="n">
-        <v>231.3377238320434</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O20" t="n">
-        <v>204.9756917930656</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P20" t="n">
-        <v>140.0925148480224</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.5443043582936</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>129.7848731702553</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K21" t="n">
-        <v>85.25762459595458</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4298433248973</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M21" t="n">
-        <v>207.9334050995481</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N21" t="n">
-        <v>227.9909703909591</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O21" t="n">
-        <v>186.1229586817961</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8517334913468</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.86648894985225</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>112.3029813488989</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L22" t="n">
-        <v>199.7964592431316</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M22" t="n">
-        <v>221.1514164730113</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N22" t="n">
-        <v>221.3824416242288</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O22" t="n">
-        <v>188.3044403492124</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P22" t="n">
-        <v>137.3687144383908</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.82911875244605</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N23" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P23" t="n">
         <v>308.745693963795</v>
@@ -36381,7 +36381,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K24" t="n">
         <v>186.5874962434848</v>
@@ -36445,22 +36445,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820406</v>
+        <v>566.6829634324475</v>
       </c>
       <c r="N24" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O24" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9556134883069083</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M25" t="n">
         <v>303.6179906468033</v>
@@ -36530,13 +36530,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N26" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P26" t="n">
         <v>308.745693963795</v>
@@ -36618,7 +36618,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.34947739681283</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>187.543109731792</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N27" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q27" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L28" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M28" t="n">
         <v>303.6179906468033</v>
@@ -36767,13 +36767,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O28" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P28" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K29" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L29" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M29" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N29" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P29" t="n">
         <v>308.745693963795</v>
@@ -36855,7 +36855,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
         <v>451.0527332560634</v>
@@ -36919,22 +36919,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N30" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K31" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L31" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M31" t="n">
         <v>303.6179906468033</v>
@@ -37004,13 +37004,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O31" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P31" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N32" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P32" t="n">
         <v>308.745693963795</v>
@@ -37092,7 +37092,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K33" t="n">
-        <v>355.33095442155</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820406</v>
+        <v>381.189564306369</v>
       </c>
       <c r="N33" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P33" t="n">
         <v>249.6795291235323</v>
@@ -37171,7 +37171,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K34" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L34" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M34" t="n">
         <v>303.6179906468033</v>
@@ -37241,13 +37241,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O34" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P34" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K35" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L35" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O35" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P35" t="n">
         <v>308.745693963795</v>
@@ -37329,7 +37329,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K36" t="n">
-        <v>284.8319806632539</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q36" t="n">
         <v>116.4807223308546</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K37" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L37" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M37" t="n">
         <v>303.6179906468033</v>
@@ -37478,13 +37478,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O37" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P37" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L38" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M38" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N38" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P38" t="n">
         <v>308.745693963795</v>
@@ -37566,7 +37566,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681222</v>
       </c>
       <c r="K39" t="n">
         <v>451.0527332560634</v>
@@ -37630,22 +37630,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N39" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O39" t="n">
-        <v>474.3640795072282</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K40" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L40" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M40" t="n">
         <v>303.6179906468033</v>
@@ -37715,13 +37715,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O40" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P40" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37803,7 +37803,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K42" t="n">
         <v>186.5874962434848</v>
@@ -37867,22 +37867,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820406</v>
+        <v>622.4553810291982</v>
       </c>
       <c r="N42" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O42" t="n">
-        <v>521.8736946105078</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K43" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
@@ -37952,13 +37952,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225028</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
         <v>257.5646495407338</v>
@@ -38098,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>355.3309544215487</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38119,7 +38119,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
